--- a/public/Finacial Model.xlsx
+++ b/public/Finacial Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KYA SOLAR SAHI HAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995924E1-9926-4A7B-B53A-DDC680006D5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CCDDDD-E6F1-4CD5-9C0D-833AA7A113B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10575" firstSheet="1" activeTab="5" xr2:uid="{2747F8E8-BB15-449C-860B-A4D1131EBF1A}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Capex-Opex" sheetId="8" r:id="rId4"/>
     <sheet name="Energy - Money Matrics" sheetId="10" r:id="rId5"/>
     <sheet name="Calculation Dashboard" sheetId="11" r:id="rId6"/>
+    <sheet name="Sensitivity Analysys" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="180">
   <si>
     <t>Month</t>
   </si>
@@ -522,17 +523,66 @@
   </si>
   <si>
     <t xml:space="preserve">System  Load KW </t>
+  </si>
+  <si>
+    <t>Total subsidy</t>
+  </si>
+  <si>
+    <t>Total Subsidy</t>
+  </si>
+  <si>
+    <t>override</t>
+  </si>
+  <si>
+    <t>Payback Year</t>
+  </si>
+  <si>
+    <t>Lifetime Savings</t>
+  </si>
+  <si>
+    <t>Tarrif rise</t>
+  </si>
+  <si>
+    <t>Consumption Increase</t>
+  </si>
+  <si>
+    <t>Yearly Yield</t>
+  </si>
+  <si>
+    <t>Annual Degradation</t>
+  </si>
+  <si>
+    <t>SENSITIVITY ANALYSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True/False </t>
+  </si>
+  <si>
+    <t>Shock test</t>
+  </si>
+  <si>
+    <t>INVERTER DAMAGE ONCE</t>
+  </si>
+  <si>
+    <t>INVERTER DAMAGE TWICE</t>
+  </si>
+  <si>
+    <t>Panel damage once</t>
+  </si>
+  <si>
+    <t>Panel damage twice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,###,###"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,8 +754,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,6 +991,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -1144,7 +1226,7 @@
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1239,6 +1321,20 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2177,94 +2273,94 @@
                   <c:v>-139936.709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-125466.8438381</c:v>
+                  <c:v>-125406.8438381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-110642.10031464029</c:v>
+                  <c:v>-110457.30031464029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-91152.697440535034</c:v>
+                  <c:v>-90773.203440535028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-70972.228873209213</c:v>
+                  <c:v>-70322.742553209217</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-50048.394996590956</c:v>
+                  <c:v>-49047.886211990961</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-28325.8031201126</c:v>
+                  <c:v>-26887.164303224607</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5745.7876416773979</c:v>
+                  <c:v>-3775.4691530952659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17753.780054334402</c:v>
+                  <c:v>20356.154630120876</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42323.861570064095</c:v>
+                  <c:v>45665.90124229838</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37135.068349003566</c:v>
+                  <c:v>41332.042763537815</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64089.429378129942</c:v>
+                  <c:v>69264.720254839791</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>92363.615864801599</c:v>
+                  <c:v>98649.193059039302</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>122049.53122172745</c:v>
+                  <c:v>129586.45470258017</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>153244.53358468242</c:v>
+                  <c:v>162183.48268928801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>186051.75212741215</c:v>
+                  <c:v>196553.58352044955</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>220580.4214153536</c:v>
+                  <c:v>232816.75725624044</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>256369.19702144989</c:v>
+                  <c:v>270523.04491892457</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>293217.25949400757</c:v>
+                  <c:v>309483.66590883577</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>331162.71788490668</c:v>
+                  <c:v>349749.45672663051</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>328704.87910470919</c:v>
+                  <c:v>349833.17735785805</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>368966.5751493008</c:v>
+                  <c:v>392871.87745852611</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>410450.91164786846</c:v>
+                  <c:v>437383.68589027663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>453203.60598482186</c:v>
+                  <c:v>483430.19196160359</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>497272.53935695556</c:v>
+                  <c:v>531076.04284549714</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>542707.87349105277</c:v>
+                  <c:v>580389.10801332991</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>589562.17398499954</c:v>
+                  <c:v>631440.65276847826</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>637890.54065364844</c:v>
+                  <c:v>684305.52138744132</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>687750.74528263987</c:v>
+                  <c:v>739062.33040459687</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>739203.37721661769</c:v>
+                  <c:v>795793.67260669125</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>797996.03694472415</c:v>
+                  <c:v>854586.33233479771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,6 +2504,1816 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculation Dashboard'!$R$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Payback Year</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Calculation Dashboard'!$Q$19:$Q$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Calculation Dashboard'!$Q$20:$Q$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Calculation Dashboard'!$R$19:$R$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Calculation Dashboard'!$R$20:$R$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.787102854206385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.80774904158798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.775720739381658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4995642810503558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2807713734459796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9949083022999012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6262200947226848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1845045674678891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C12-4F84-B8F8-328D5656980E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculation Dashboard'!$S$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Calculation Dashboard'!$Q$19:$Q$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Calculation Dashboard'!$Q$20:$Q$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Calculation Dashboard'!$S$19:$S$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Calculation Dashboard'!$S$20:$S$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.8395638230544415E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.921762792705735E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11246551287346218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12929800882550513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1518324065375134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18443762979171008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23788474739711352</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3475437729130062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C12-4F84-B8F8-328D5656980E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculation Dashboard'!$T$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Calculation Dashboard'!$Q$19:$Q$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Calculation Dashboard'!$Q$20:$Q$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Calculation Dashboard'!$T$19:$T$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Calculation Dashboard'!$T$20:$T$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25496.491366399885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53274.269144177699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81052.046921955465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108829.82469973322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136607.60247751101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164385.38025528876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192163.1580330666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219940.93581084436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1C12-4F84-B8F8-328D5656980E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculation Dashboard'!$U$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lifetime Savings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Calculation Dashboard'!$Q$19:$Q$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Calculation Dashboard'!$Q$20:$Q$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Calculation Dashboard'!$U$19:$U$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Calculation Dashboard'!$U$20:$U$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>731586.33233479771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>761586.33233479771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>791586.33233479795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>821586.33233479771</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>851586.33233479771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>881586.33233479771</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>911586.33233479771</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>941586.33233479771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1C12-4F84-B8F8-328D5656980E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="669921360"/>
+        <c:axId val="870819488"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total Subsidy</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$19:$Q$27</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$20:$Q$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>60000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>90000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>120000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>150000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>180000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>210000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$19:$Q$27</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$20:$Q$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>60000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>90000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>120000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>150000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>180000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>210000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-1C12-4F84-B8F8-328D5656980E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="669921360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870819488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="870819488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669921360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculation Dashboard'!$R$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Payback Year</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Calculation Dashboard'!$Q$31:$Q$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Calculation Dashboard'!$Q$32:$Q$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Calculation Dashboard'!$R$31:$R$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Calculation Dashboard'!$R$32:$R$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.1564531747640272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1564531747640272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1564531747640272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1564531747640272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1564531747640272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1564531747640272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1564531747640272</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1564531747640272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1564531747640272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1564531747640272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1564531747640272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1564531747640272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AA9-412D-AB9A-97A4E42D8ACD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculation Dashboard'!$S$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Calculation Dashboard'!$Q$31:$Q$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Calculation Dashboard'!$Q$32:$Q$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Calculation Dashboard'!$S$31:$S$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Calculation Dashboard'!$S$32:$S$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.15453500884255855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15453500884255855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15453500884255855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15453500884255855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15453500884255855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15453500884255855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15453500884255855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15453500884255855</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15453500884255855</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15453500884255855</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15453500884255855</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15453500884255855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2AA9-412D-AB9A-97A4E42D8ACD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="871205312"/>
+        <c:axId val="868593904"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$30</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Inflation</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$31:$Q$43</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$32:$Q$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0000000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.9999999999999992E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.10999999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$31:$Q$43</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$32:$Q$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0000000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.9999999999999992E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.10999999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-2AA9-412D-AB9A-97A4E42D8ACD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calculation Dashboard'!$T$30</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>NPV</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$31:$Q$43</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$32:$Q$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0000000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.9999999999999992E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.10999999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Calculation Dashboard'!$T$31:$T$43</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Calculation Dashboard'!$T$32:$T$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>139385.38025528876</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>139385.38025528876</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>139385.38025528876</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>139385.38025528876</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>139385.38025528876</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>139385.38025528876</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>139385.38025528876</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>139385.38025528876</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>139385.38025528876</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>139385.38025528876</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>139385.38025528876</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>139385.38025528876</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-2AA9-412D-AB9A-97A4E42D8ACD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calculation Dashboard'!$U$30</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Lifetime Savings</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$31:$Q$43</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Calculation Dashboard'!$Q$32:$Q$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0000000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.9999999999999992E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.10999999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Calculation Dashboard'!$U$31:$U$43</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Calculation Dashboard'!$U$32:$U$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>854586.33233479771</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>854586.33233479771</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>854586.33233479771</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>854586.33233479771</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>854586.33233479771</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>854586.33233479771</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>854586.33233479771</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>854586.33233479771</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>854586.33233479771</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>854586.33233479771</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>854586.33233479771</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>854586.33233479771</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-2AA9-412D-AB9A-97A4E42D8ACD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="871205312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868593904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="868593904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="871205312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2449,6 +4355,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3509,6 +5495,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3777,9 +6795,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1336813</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>82825</xdr:rowOff>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -3800,8 +6818,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1336813" y="1035325"/>
-          <a:ext cx="2804491" cy="3710609"/>
+          <a:off x="1343025" y="1085850"/>
+          <a:ext cx="2801178" cy="4374459"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3854,13 +6872,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1336813</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>41414</xdr:rowOff>
+      <xdr:rowOff>41415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>265044</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>16566</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3875,8 +6893,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1336813" y="231914"/>
-          <a:ext cx="2821057" cy="737152"/>
+          <a:off x="1336813" y="231915"/>
+          <a:ext cx="2797037" cy="739636"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4262,6 +7280,78 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37761331-6110-40CC-8145-AB7930D2ED12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1182661-042F-4B82-B70C-32CACBFAF6C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4372,7 +7462,9 @@
     <tableColumn id="12" xr3:uid="{D19ED9CB-A9E1-46D0-B8C3-2F4CA4C759C0}" name="Net saving in Bill">
       <calculatedColumnFormula>Table7[[#This Row],[Bill without Solar]]+Table7[[#This Row],[Bill After Solar]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{244BAA3F-DC71-42C2-A06C-655A0A6676C9}" name="Operational cost"/>
+    <tableColumn id="10" xr3:uid="{244BAA3F-DC71-42C2-A06C-655A0A6676C9}" name="Operational cost">
+      <calculatedColumnFormula>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="13" xr3:uid="{38BAA8C9-E5F3-4ADA-8CA2-A11A5654149E}" name="Cost Each Year">
       <calculatedColumnFormula>'Capex-Opex'!$E$27+Table7[[#This Row],[Operational cost]]</calculatedColumnFormula>
     </tableColumn>
@@ -5463,8 +8555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EEB7C1-F464-4930-B829-AE02B3E83CB7}">
   <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5845,8 +8937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8085E61D-A74E-40FA-964A-712C153C2498}">
   <dimension ref="B3:AH35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5925,7 +9017,7 @@
         <v>159</v>
       </c>
       <c r="S3" s="17">
-        <f>'Calculation Dashboard'!C8-'Calculation Dashboard'!C9-'Calculation Dashboard'!C10</f>
+        <f>'Calculation Dashboard'!C7-'Calculation Dashboard'!C8-'Calculation Dashboard'!C9</f>
         <v>154085</v>
       </c>
       <c r="U3" s="6" t="s">
@@ -6002,11 +9094,11 @@
         <v>17148.290999999997</v>
       </c>
       <c r="L4">
-        <f>'Calculation Dashboard'!C11</f>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
         <v>3000</v>
       </c>
       <c r="M4" s="7">
-        <f>'Calculation Dashboard'!C8-'Calculation Dashboard'!C9-'Calculation Dashboard'!C10+Table7[[#This Row],[Operational cost]]</f>
+        <f>'Calculation Dashboard'!C7-'Calculation Dashboard'!C10+Table7[[#This Row],[Operational cost]]</f>
         <v>157085</v>
       </c>
       <c r="N4" s="7">
@@ -6026,7 +9118,7 @@
       </c>
       <c r="S4" s="41">
         <f>SUM(Table7[Net saving])</f>
-        <v>797996.03694472415</v>
+        <v>854586.33233479771</v>
       </c>
       <c r="U4" t="s">
         <v>107</v>
@@ -6106,32 +9198,32 @@
         <f>Table7[[#This Row],[Bill without Solar]]+Table7[[#This Row],[Bill After Solar]]</f>
         <v>17619.865161900001</v>
       </c>
-      <c r="L5">
-        <f>L4+L4*'Calculation Dashboard'!$C$12</f>
-        <v>3150</v>
+      <c r="L5" s="17">
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>3090</v>
       </c>
       <c r="M5" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>3150</v>
+        <v>3090</v>
       </c>
       <c r="N5" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>14469.865161900001</v>
+        <v>14529.865161900001</v>
       </c>
       <c r="O5">
         <f>O4+Table7[[#This Row],[Net saving]]</f>
-        <v>-125466.8438381</v>
+        <v>-125406.8438381</v>
       </c>
       <c r="P5" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>-119492.2322267619</v>
+        <v>-119435.08936961905</v>
       </c>
       <c r="R5" s="17" t="s">
         <v>154</v>
       </c>
       <c r="S5" s="40">
         <f>NPV(8%, N4:N340) + C2</f>
-        <v>127862.79853582731</v>
+        <v>139385.38025528876</v>
       </c>
       <c r="U5" t="s">
         <v>108</v>
@@ -6205,31 +9297,31 @@
         <v>18132.243523459711</v>
       </c>
       <c r="L6" s="17">
-        <f>L5+L5*'Calculation Dashboard'!$C$12</f>
-        <v>3307.5</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>3182.7</v>
       </c>
       <c r="M6" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>3307.5</v>
+        <v>3182.7</v>
       </c>
       <c r="N6" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>14824.743523459711</v>
+        <v>14949.54352345971</v>
       </c>
       <c r="O6" s="17">
         <f>O5+Table7[[#This Row],[Net saving]]</f>
-        <v>-110642.10031464029</v>
+        <v>-110457.30031464029</v>
       </c>
       <c r="P6" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>-100355.64654389142</v>
+        <v>-100188.02749627236</v>
       </c>
       <c r="R6" s="17" t="s">
         <v>136</v>
       </c>
       <c r="S6" s="36">
         <f>IRR(Table7[Net saving])</f>
-        <v>0.15049672876653175</v>
+        <v>0.15453500884255855</v>
       </c>
       <c r="U6" t="s">
         <v>110</v>
@@ -6303,31 +9395,31 @@
         <v>22962.277874105257</v>
       </c>
       <c r="L7" s="17">
-        <f>L6+L6*'Calculation Dashboard'!$C$12</f>
-        <v>3472.875</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>3278.181</v>
       </c>
       <c r="M7" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>3472.875</v>
+        <v>3278.181</v>
       </c>
       <c r="N7" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>19489.402874105257</v>
+        <v>19684.096874105257</v>
       </c>
       <c r="O7" s="17">
         <f>O6+Table7[[#This Row],[Net saving]]</f>
-        <v>-91152.697440535034</v>
+        <v>-90773.203440535028</v>
       </c>
       <c r="P7" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>-78741.127256698004</v>
+        <v>-78413.306071080893</v>
       </c>
       <c r="R7" s="17" t="s">
         <v>157</v>
       </c>
       <c r="S7" s="7">
         <f>INDEX(B4:B34, MATCH(TRUE, INDEX(O4:O34&gt;0, 0), 0) - 1) + ABS(INDEX(O4:O34, MATCH(TRUE, INDEX(O4:O34&gt;0, 0), 0) - 1)) / (INDEX(O4:O34, MATCH(TRUE, INDEX(O4:O34&gt;0, 0), 0)) - INDEX(O4:O34, MATCH(TRUE, INDEX(O4:O34&gt;0, 0), 0) - 1))</f>
-        <v>7.2445060996867845</v>
+        <v>7.1564531747640272</v>
       </c>
       <c r="U7" t="s">
         <v>111</v>
@@ -6378,31 +9470,31 @@
         <v>23826.98731732582</v>
       </c>
       <c r="L8" s="17">
-        <f>L7+L7*'Calculation Dashboard'!$C$12</f>
-        <v>3646.5187500000002</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>3376.5264299999999</v>
       </c>
       <c r="M8" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>3646.5187500000002</v>
+        <v>3376.5264299999999</v>
       </c>
       <c r="N8" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>20180.468567325821</v>
+        <v>20450.460887325818</v>
       </c>
       <c r="O8" s="17">
         <f>O7+Table7[[#This Row],[Net saving]]</f>
-        <v>-70972.228873209213</v>
+        <v>-70322.742553209217</v>
       </c>
       <c r="P8" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>-58389.028335485084</v>
+        <v>-57854.694332677609</v>
       </c>
       <c r="R8" s="17" t="s">
         <v>158</v>
       </c>
       <c r="S8" s="36">
         <f>(S4-S3)/S3</f>
-        <v>4.1789339451907983</v>
+        <v>4.546200683614873</v>
       </c>
       <c r="V8" t="s">
         <v>117</v>
@@ -6459,24 +9551,24 @@
         <v>24752.678564118254</v>
       </c>
       <c r="L9" s="17">
-        <f>L8+L8*'Calculation Dashboard'!$C$12</f>
-        <v>3828.8446875</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>3477.8222228999994</v>
       </c>
       <c r="M9" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>3828.8446875</v>
+        <v>3477.8222228999994</v>
       </c>
       <c r="N9" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>20923.833876618253</v>
+        <v>21274.856341218256</v>
       </c>
       <c r="O9" s="17">
         <f>O8+Table7[[#This Row],[Net saving]]</f>
-        <v>-50048.394996590956</v>
+        <v>-49047.886211990961</v>
       </c>
       <c r="P9" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>-39214.227069578112</v>
+        <v>-38430.30225706246</v>
       </c>
       <c r="U9" t="s">
         <v>123</v>
@@ -6540,24 +9632,24 @@
         <v>25742.878798353355</v>
       </c>
       <c r="L10" s="17">
-        <f>L9+L9*'Calculation Dashboard'!$C$12</f>
-        <v>4020.2869218750002</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>3582.1568895869996</v>
       </c>
       <c r="M10" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>4020.2869218750002</v>
+        <v>3582.1568895869996</v>
       </c>
       <c r="N10" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>21722.591876478356</v>
+        <v>22160.721908766354</v>
       </c>
       <c r="O10" s="17">
         <f>O9+Table7[[#This Row],[Net saving]]</f>
-        <v>-28325.8031201126</v>
+        <v>-26887.164303224607</v>
       </c>
       <c r="P10" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>-21137.150410325848</v>
+        <v>-20063.615974964927</v>
       </c>
       <c r="U10" s="29" t="s">
         <v>130</v>
@@ -6619,24 +9711,24 @@
         <v>26801.316746403951</v>
       </c>
       <c r="L11" s="17">
-        <f>L10+L10*'Calculation Dashboard'!$C$12</f>
-        <v>4221.3012679687499</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>3689.6215962746101</v>
       </c>
       <c r="M11" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>4221.3012679687499</v>
+        <v>3689.6215962746101</v>
       </c>
       <c r="N11" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>22580.015478435202</v>
+        <v>23111.695150129341</v>
       </c>
       <c r="O11" s="17">
         <f>O10+Table7[[#This Row],[Net saving]]</f>
-        <v>-5745.7876416773979</v>
+        <v>-3775.4691530952659</v>
       </c>
       <c r="P11" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>-4083.424003832507</v>
+        <v>-2683.1554395869866</v>
       </c>
       <c r="U11" t="s">
         <v>133</v>
@@ -6699,24 +9791,24 @@
         <v>27931.934027378989</v>
       </c>
       <c r="L12" s="17">
-        <f>L11+L11*'Calculation Dashboard'!$C$12</f>
-        <v>4432.3663313671877</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]+IF('Calculation Dashboard'!Q64=TRUE,'Capex-Opex'!E7*Table7[[#This Row],[Inflation Factor]],0)</f>
+        <v>3800.3102441628484</v>
       </c>
       <c r="M12" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>4432.3663313671877</v>
+        <v>3800.3102441628484</v>
       </c>
       <c r="N12" s="33">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>23499.5676960118</v>
+        <v>24131.623783216142</v>
       </c>
       <c r="O12" s="32">
         <f>O11+Table7[[#This Row],[Net saving]]</f>
-        <v>17753.780054334402</v>
+        <v>20356.154630120876</v>
       </c>
       <c r="P12" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>12016.457165573327</v>
+        <v>13777.846713208321</v>
       </c>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.25">
@@ -6761,24 +9853,24 @@
         <v>29224.06616366524</v>
       </c>
       <c r="L13" s="17">
-        <f>L12+L12*'Calculation Dashboard'!$C$12</f>
-        <v>4653.9846479355474</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>3914.3195514877339</v>
       </c>
       <c r="M13" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>4653.9846479355474</v>
+        <v>3914.3195514877339</v>
       </c>
       <c r="N13" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>24570.081515729693</v>
+        <v>25309.746612177507</v>
       </c>
       <c r="O13" s="17">
         <f>O12+Table7[[#This Row],[Net saving]]</f>
-        <v>42323.861570064095</v>
+        <v>45665.90124229838</v>
       </c>
       <c r="P13" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>27282.338536831096</v>
+        <v>29436.64710790692</v>
       </c>
       <c r="U13" t="s">
         <v>124</v>
@@ -6826,24 +9918,24 @@
         <v>30607.967384186602</v>
       </c>
       <c r="L14" s="17">
-        <f>L13+L13*'Calculation Dashboard'!$C$12</f>
-        <v>4886.6838803323244</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]+IF('Calculation Dashboard'!Q66=TRUE,'Capex-Opex'!E5*0.3*Table7[[#This Row],[Inflation Factor]],0)</f>
+        <v>4031.7491380323659</v>
       </c>
       <c r="M14" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>35796.760605247131</v>
+        <v>34941.825862947167</v>
       </c>
       <c r="N14" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>-5188.7932210605286</v>
+        <v>-4333.858478760565</v>
       </c>
       <c r="O14" s="17">
         <f>O13+Table7[[#This Row],[Net saving]]</f>
-        <v>37135.068349003566</v>
+        <v>41332.042763537815</v>
       </c>
       <c r="P14" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>22797.710630595251</v>
+        <v>25374.288848449298</v>
       </c>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.25">
@@ -6888,24 +9980,24 @@
         <v>32085.379103475316</v>
       </c>
       <c r="L15" s="17">
-        <f>L14+L14*'Calculation Dashboard'!$C$12</f>
-        <v>5131.0180743489409</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>4152.7016121733368</v>
       </c>
       <c r="M15" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>5131.0180743489409</v>
+        <v>4152.7016121733368</v>
       </c>
       <c r="N15" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>26954.361029126376</v>
+        <v>27932.67749130198</v>
       </c>
       <c r="O15" s="17">
         <f>O14+Table7[[#This Row],[Net saving]]</f>
-        <v>64089.429378129942</v>
+        <v>69264.720254839791</v>
       </c>
       <c r="P15" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>37471.762006760451</v>
+        <v>40497.647397370689</v>
       </c>
       <c r="V15" s="34"/>
     </row>
@@ -6951,24 +10043,24 @@
         <v>33661.755464738046</v>
       </c>
       <c r="L16" s="17">
-        <f>L15+L15*'Calculation Dashboard'!$C$12</f>
-        <v>5387.5689780663879</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>4277.2826605385371</v>
       </c>
       <c r="M16" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>5387.5689780663879</v>
+        <v>4277.2826605385371</v>
       </c>
       <c r="N16" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>28274.186486671657</v>
+        <v>29384.472804199508</v>
       </c>
       <c r="O16" s="17">
         <f>O15+Table7[[#This Row],[Net saving]]</f>
-        <v>92363.615864801599</v>
+        <v>98649.193059039302</v>
       </c>
       <c r="P16" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>51431.517391699999</v>
+        <v>54931.561968295071</v>
       </c>
       <c r="V16" s="7"/>
     </row>
@@ -7014,24 +10106,24 @@
         <v>35342.862783895558</v>
       </c>
       <c r="L17" s="17">
-        <f>L16+L16*'Calculation Dashboard'!$C$12</f>
-        <v>5656.9474269697075</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>4405.6011403546927</v>
       </c>
       <c r="M17" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>5656.9474269697075</v>
+        <v>4405.6011403546927</v>
       </c>
       <c r="N17" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>29685.915356925849</v>
+        <v>30937.261643540864</v>
       </c>
       <c r="O17" s="17">
         <f>O16+Table7[[#This Row],[Net saving]]</f>
-        <v>122049.53122172745</v>
+        <v>129586.45470258017</v>
       </c>
       <c r="P17" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>64725.47224313156</v>
+        <v>68722.463683207621</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -7076,24 +10168,24 @@
         <v>37134.797161273164</v>
       </c>
       <c r="L18" s="17">
-        <f>L17+L17*'Calculation Dashboard'!$C$12</f>
-        <v>5939.794798318193</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>4537.7691745653337</v>
       </c>
       <c r="M18" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>5939.794798318193</v>
+        <v>4537.7691745653337</v>
       </c>
       <c r="N18" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>31195.002362954969</v>
+        <v>32597.027986707828</v>
       </c>
       <c r="O18" s="17">
         <f>O17+Table7[[#This Row],[Net saving]]</f>
-        <v>153244.53358468242</v>
+        <v>162183.48268928801</v>
       </c>
       <c r="P18" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>77398.902885368589</v>
+        <v>81913.679611562868</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -7138,24 +10230,24 @@
         <v>39044.003080963841</v>
       </c>
       <c r="L19" s="17">
-        <f>L18+L18*'Calculation Dashboard'!$C$12</f>
-        <v>6236.7845382341029</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>4673.9022498022941</v>
       </c>
       <c r="M19" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>6236.7845382341029</v>
+        <v>4673.9022498022941</v>
       </c>
       <c r="N19" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>32807.218542729737</v>
+        <v>34370.100831161544</v>
       </c>
       <c r="O19" s="17">
         <f>O18+Table7[[#This Row],[Net saving]]</f>
-        <v>186051.75212741215</v>
+        <v>196553.58352044955</v>
       </c>
       <c r="P19" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>89494.073903068289</v>
+        <v>94545.634364387777</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -7200,24 +10292,24 @@
         <v>41077.293053087255</v>
       </c>
       <c r="L20" s="17">
-        <f>L19+L19*'Calculation Dashboard'!$C$12</f>
-        <v>6548.6237651458077</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]+IF('Calculation Dashboard'!Q65=TRUE,'Capex-Opex'!E7*Table7[[#This Row],[Inflation Factor]],0)</f>
+        <v>4814.1193172963622</v>
       </c>
       <c r="M20" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>6548.6237651458077</v>
+        <v>4814.1193172963622</v>
       </c>
       <c r="N20" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>34528.669287941448</v>
+        <v>36263.173735790893</v>
       </c>
       <c r="O20" s="17">
         <f>O19+Table7[[#This Row],[Net saving]]</f>
-        <v>220580.4214153536</v>
+        <v>232816.75725624044</v>
       </c>
       <c r="P20" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>101050.43257609209</v>
+        <v>106656.03901175868</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -7262,24 +10354,24 @@
         <v>42664.830559499387</v>
       </c>
       <c r="L21" s="17">
-        <f>L20+L20*'Calculation Dashboard'!$C$12</f>
-        <v>6876.0549534030979</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>4958.5428968152537</v>
       </c>
       <c r="M21" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>6876.0549534030979</v>
+        <v>4958.5428968152537</v>
       </c>
       <c r="N21" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>35788.775606096286</v>
+        <v>37706.287662684132</v>
       </c>
       <c r="O21" s="17">
         <f>O20+Table7[[#This Row],[Net saving]]</f>
-        <v>256369.19702144989</v>
+        <v>270523.04491892457</v>
       </c>
       <c r="P21" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>111853.03146591385</v>
+        <v>118028.30842052995</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -7324,24 +10416,24 @@
         <v>44067.920173630933</v>
       </c>
       <c r="L22" s="17">
-        <f>L21+L21*'Calculation Dashboard'!$C$12</f>
-        <v>7219.8577010732524</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>5107.2991837197114</v>
       </c>
       <c r="M22" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>7219.8577010732524</v>
+        <v>5107.2991837197114</v>
       </c>
       <c r="N22" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>36848.062472557678</v>
+        <v>38960.620989911222</v>
       </c>
       <c r="O22" s="17">
         <f>O21+Table7[[#This Row],[Net saving]]</f>
-        <v>293217.25949400757</v>
+        <v>309483.66590883577</v>
       </c>
       <c r="P22" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>121837.82768339876</v>
+        <v>128596.85552922881</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -7386,24 +10478,24 @@
         <v>45526.308977026063</v>
       </c>
       <c r="L23" s="17">
-        <f>L22+L22*'Calculation Dashboard'!$C$12</f>
-        <v>7580.850586126915</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>5260.518159231302</v>
       </c>
       <c r="M23" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>7580.850586126915</v>
+        <v>5260.518159231302</v>
       </c>
       <c r="N23" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>37945.458390899148</v>
+        <v>40265.790817794761</v>
       </c>
       <c r="O23" s="17">
         <f>O22+Table7[[#This Row],[Net saving]]</f>
-        <v>331162.71788490668</v>
+        <v>349749.45672663051</v>
       </c>
       <c r="P23" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>131052.33276498286</v>
+        <v>138407.7364748533</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -7448,24 +10540,24 @@
         <v>47042.612732632275</v>
       </c>
       <c r="L24" s="17">
-        <f>L23+L23*'Calculation Dashboard'!$C$12</f>
-        <v>7959.8931154332604</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]+IF('Calculation Dashboard'!Q66=TRUE,'Capex-Opex'!E5*0.3*Table7[[#This Row],[Inflation Factor]],0)</f>
+        <v>5418.3337040082415</v>
       </c>
       <c r="M24" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>49500.451512829779</v>
+        <v>46958.892101404759</v>
       </c>
       <c r="N24" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>-2457.8387801975041</v>
+        <v>83.720631227515696</v>
       </c>
       <c r="O24" s="17">
         <f>O23+Table7[[#This Row],[Net saving]]</f>
-        <v>328704.87910470919</v>
+        <v>349833.17735785805</v>
       </c>
       <c r="P24" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>123885.41190360603</v>
+        <v>131848.44530622181</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -7510,24 +10602,24 @@
         <v>48619.583815796541</v>
       </c>
       <c r="L25" s="17">
-        <f>L24+L24*'Calculation Dashboard'!$C$12</f>
-        <v>8357.8877712049234</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>5580.8837151284879</v>
       </c>
       <c r="M25" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>8357.8877712049234</v>
+        <v>5580.8837151284879</v>
       </c>
       <c r="N25" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>40261.696044591619</v>
+        <v>43038.700100668051</v>
       </c>
       <c r="O25" s="17">
         <f>O24+Table7[[#This Row],[Net saving]]</f>
-        <v>368966.5751493008</v>
+        <v>392871.87745852611</v>
       </c>
       <c r="P25" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>132437.73495756389</v>
+        <v>141018.36069589408</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -7572,24 +10664,24 @@
         <v>50260.118658332853</v>
       </c>
       <c r="L26" s="17">
-        <f>L25+L25*'Calculation Dashboard'!$C$12</f>
-        <v>8775.7821597651691</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>5748.3102265823427</v>
       </c>
       <c r="M26" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>8775.7821597651691</v>
+        <v>5748.3102265823427</v>
       </c>
       <c r="N26" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>41484.336498567682</v>
+        <v>44511.808431750513</v>
       </c>
       <c r="O26" s="17">
         <f>O25+Table7[[#This Row],[Net saving]]</f>
-        <v>410450.91164786846</v>
+        <v>437383.68589027663</v>
       </c>
       <c r="P26" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>140312.59123421027</v>
+        <v>149519.5566369826</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -7634,24 +10726,24 @@
         <v>51967.265604706809</v>
       </c>
       <c r="L27" s="17">
-        <f>L26+L26*'Calculation Dashboard'!$C$12</f>
-        <v>9214.5712677534284</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>5920.7595333798126</v>
       </c>
       <c r="M27" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>9214.5712677534284</v>
+        <v>5920.7595333798126</v>
       </c>
       <c r="N27" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>42752.694336953384</v>
+        <v>46046.506071326992</v>
       </c>
       <c r="O27" s="17">
         <f>O26+Table7[[#This Row],[Net saving]]</f>
-        <v>453203.60598482186</v>
+        <v>483430.19196160359</v>
       </c>
       <c r="P27" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>147550.08979228904</v>
+        <v>157390.99885852859</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -7696,24 +10788,24 @@
         <v>53744.233203274802</v>
       </c>
       <c r="L28" s="17">
-        <f>L27+L27*'Calculation Dashboard'!$C$12</f>
-        <v>9675.2998311410993</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>6098.3823193812068</v>
       </c>
       <c r="M28" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>9675.2998311410993</v>
+        <v>6098.3823193812068</v>
       </c>
       <c r="N28" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>44068.933372133703</v>
+        <v>47645.850883893596</v>
       </c>
       <c r="O28" s="17">
         <f>O27+Table7[[#This Row],[Net saving]]</f>
-        <v>497272.53935695556</v>
+        <v>531076.04284549714</v>
       </c>
       <c r="P28" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>154188.25711935814</v>
+        <v>164669.63880628251</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -7758,24 +10850,24 @@
         <v>55594.39895679542</v>
       </c>
       <c r="L29" s="17">
-        <f>L28+L28*'Calculation Dashboard'!$C$12</f>
-        <v>10159.064822698154</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>6281.3337889626428</v>
       </c>
       <c r="M29" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>10159.064822698154</v>
+        <v>6281.3337889626428</v>
       </c>
       <c r="N29" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>45435.334134097269</v>
+        <v>49313.065167832778</v>
       </c>
       <c r="O29" s="17">
         <f>O28+Table7[[#This Row],[Net saving]]</f>
-        <v>542707.87349105277</v>
+        <v>580389.10801332991</v>
       </c>
       <c r="P29" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>160263.13926410631</v>
+        <v>171390.51225952816</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -7820,24 +10912,24 @@
         <v>57521.318557779814</v>
       </c>
       <c r="L30" s="17">
-        <f>L29+L29*'Calculation Dashboard'!$C$12</f>
-        <v>10667.018063833062</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>6469.7738026315219</v>
       </c>
       <c r="M30" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>10667.018063833062</v>
+        <v>6469.7738026315219</v>
       </c>
       <c r="N30" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>46854.30049394675</v>
+        <v>51051.544755148294</v>
       </c>
       <c r="O30" s="17">
         <f>O29+Table7[[#This Row],[Net saving]]</f>
-        <v>589562.17398499954</v>
+        <v>631440.65276847826</v>
       </c>
       <c r="P30" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>165808.89911040821</v>
+        <v>177586.83326207221</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -7882,24 +10974,24 @@
         <v>59528.735635673584</v>
       </c>
       <c r="L31" s="17">
-        <f>L30+L30*'Calculation Dashboard'!$C$12</f>
-        <v>11200.368967024715</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>6663.8670167104683</v>
       </c>
       <c r="M31" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>11200.368967024715</v>
+        <v>6663.8670167104683</v>
       </c>
       <c r="N31" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>48328.366668648872</v>
+        <v>52864.868618963112</v>
       </c>
       <c r="O31" s="17">
         <f>O30+Table7[[#This Row],[Net saving]]</f>
-        <v>637890.54065364844</v>
+        <v>684305.52138744132</v>
       </c>
       <c r="P31" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>170857.90902023253</v>
+        <v>183290.08358620736</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -7944,24 +11036,24 @@
         <v>61620.592044367339</v>
       </c>
       <c r="L32" s="17">
-        <f>L31+L31*'Calculation Dashboard'!$C$12</f>
-        <v>11760.38741537595</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>6863.7830272117817</v>
       </c>
       <c r="M32" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>11760.38741537595</v>
+        <v>6863.7830272117817</v>
       </c>
       <c r="N32" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>49860.204628991385</v>
+        <v>54756.80901715556</v>
       </c>
       <c r="O32" s="17">
         <f>O31+Table7[[#This Row],[Net saving]]</f>
-        <v>687750.74528263987</v>
+        <v>739062.33040459687</v>
       </c>
       <c r="P32" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>175440.83906201503</v>
+        <v>188530.09793835197</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -8006,24 +11098,24 @@
         <v>63801.038720122568</v>
       </c>
       <c r="L33" s="17">
-        <f>L32+L32*'Calculation Dashboard'!$C$12</f>
-        <v>12348.406786144747</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>7069.6965180281359</v>
       </c>
       <c r="M33" s="7">
         <f>Table7[[#This Row],[Operational cost]]+IF(MOD(Table7[[#This Row],[No]],'Calculation Dashboard'!$C$24)=0,'Capex-Opex'!$E$7*Table7[[#This Row],[Inflation Factor]],0)</f>
-        <v>12348.406786144747</v>
+        <v>7069.6965180281359</v>
       </c>
       <c r="N33" s="7">
         <f>Table7[[#This Row],[Net saving in Bill]]-Table7[[#This Row],[Cost Each Year]]</f>
-        <v>51452.63193397782</v>
+        <v>56731.342202094434</v>
       </c>
       <c r="O33" s="17">
         <f>O32+Table7[[#This Row],[Net saving]]</f>
-        <v>739203.37721661769</v>
+        <v>795793.67260669125</v>
       </c>
       <c r="P33" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>179586.74103108357</v>
+        <v>193335.14510542201</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -8068,8 +11160,8 @@
         <v>66074.447141675395</v>
       </c>
       <c r="L34" s="17">
-        <f>L33+L33*'Calculation Dashboard'!$C$12</f>
-        <v>12965.827125451984</v>
+        <f>'Calculation Dashboard'!$C$11*Table7[[#This Row],[Inflation Factor]]</f>
+        <v>7281.7874135689799</v>
       </c>
       <c r="M34" s="7">
         <f>3000*Table7[[#This Row],[Inflation Factor]]</f>
@@ -8081,11 +11173,11 @@
       </c>
       <c r="O34" s="17">
         <f>O33+Table7[[#This Row],[Net saving]]</f>
-        <v>797996.03694472415</v>
+        <v>854586.33233479771</v>
       </c>
       <c r="P34" s="17">
         <f>Table7[[#This Row],[Cumulative saving]]/(1+$AA$10)^Table7[[#This Row],[No]]</f>
-        <v>184638.28706575619</v>
+        <v>197732.00523179278</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -8111,10 +11203,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34F8D75-D698-4FA0-B05F-8A101AF21739}">
-  <dimension ref="B3:M24"/>
+  <dimension ref="B1:AH67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R68" sqref="R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8128,9 +11220,35 @@
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="36"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="18"/>
+    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z2">
+        <f>IF(Z3="", C8+C9, Z3)</f>
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="39" t="s">
         <v>155</v>
       </c>
@@ -8143,7 +11261,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -8151,37 +11269,45 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="L5" s="48">
         <f>'Energy - Money Matrics'!S6</f>
-        <v>0.15049672876653175</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0.15453500884255855</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="18"/>
+        <v>139</v>
+      </c>
+      <c r="C7" s="18">
+        <f>SUM('Capex-Opex'!E5:E22)</f>
+        <v>277085</v>
+      </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="S7" s="36"/>
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8" s="18">
-        <f>SUM('Capex-Opex'!E5:E22)</f>
-        <v>277085</v>
+        <v>78000</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -8189,34 +11315,35 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9" s="18">
-        <v>78000</v>
+        <v>45000</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="18">
-        <v>45000</v>
+        <v>164</v>
+      </c>
+      <c r="C10" s="17">
+        <f>Z2</f>
+        <v>123000</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="L10" s="49">
         <f>'Energy - Money Matrics'!S7</f>
-        <v>7.2445060996867845</v>
+        <v>7.1564531747640272</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>142</v>
       </c>
@@ -8225,8 +11352,10 @@
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="S11" s="36"/>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>147</v>
       </c>
@@ -8236,7 +11365,7 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>143</v>
       </c>
@@ -8246,7 +11375,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>144</v>
       </c>
@@ -8256,7 +11385,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
         <v>145</v>
       </c>
@@ -8268,8 +11397,13 @@
       <c r="L15" s="46" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="Q15" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="R15" s="56"/>
+      <c r="S15" s="57"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>148</v>
       </c>
@@ -8279,7 +11413,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:34" ht="21" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
         <v>146</v>
       </c>
@@ -8290,10 +11424,10 @@
       <c r="H17" s="18"/>
       <c r="L17" s="44">
         <f>'Energy - Money Matrics'!S5</f>
-        <v>127862.79853582731</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <v>139385.38025528876</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>149</v>
       </c>
@@ -8302,8 +11436,23 @@
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q18" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="R18" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="S18" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="T18" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="U18" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>150</v>
       </c>
@@ -8312,8 +11461,27 @@
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q19" s="58">
+        <v>123000</v>
+      </c>
+      <c r="R19" s="7">
+        <f>L10</f>
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S19" s="36">
+        <f>L5</f>
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T19" s="40">
+        <f>L17</f>
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U19" s="50">
+        <f>L23</f>
+        <v>854586.33233479771</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>151</v>
       </c>
@@ -8323,8 +11491,24 @@
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q20" s="58">
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
+        <f t="dataTable" ref="R20:U27" dt2D="0" dtr="0" r1="Z3" ca="1"/>
+        <v>12.787102854206385</v>
+      </c>
+      <c r="S20" s="36">
+        <v>8.8395638230544415E-2</v>
+      </c>
+      <c r="T20">
+        <v>25496.491366399885</v>
+      </c>
+      <c r="U20">
+        <v>731586.33233479771</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
         <v>156</v>
       </c>
@@ -8336,8 +11520,24 @@
       <c r="L21" s="46" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q21" s="58">
+        <f>Q20+30000</f>
+        <v>30000</v>
+      </c>
+      <c r="R21" s="17">
+        <v>11.80774904158798</v>
+      </c>
+      <c r="S21" s="36">
+        <v>9.921762792705735E-2</v>
+      </c>
+      <c r="T21">
+        <v>53274.269144177699</v>
+      </c>
+      <c r="U21">
+        <v>761586.33233479771</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>163</v>
       </c>
@@ -8348,8 +11548,24 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q22" s="58">
+        <f t="shared" ref="Q22:Q27" si="0">Q21+30000</f>
+        <v>60000</v>
+      </c>
+      <c r="R22" s="17">
+        <v>10.775720739381658</v>
+      </c>
+      <c r="S22" s="36">
+        <v>0.11246551287346218</v>
+      </c>
+      <c r="T22">
+        <v>81052.046921955465</v>
+      </c>
+      <c r="U22">
+        <v>791586.33233479795</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" ht="21" x14ac:dyDescent="0.35">
       <c r="B23" s="18" t="s">
         <v>152</v>
       </c>
@@ -8358,20 +11574,1308 @@
       </c>
       <c r="L23" s="47">
         <f>'Energy - Money Matrics'!S4</f>
-        <v>797996.03694472415</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+        <v>854586.33233479771</v>
+      </c>
+      <c r="Q23" s="58">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="R23" s="17">
+        <v>8.4995642810503558</v>
+      </c>
+      <c r="S23" s="36">
+        <v>0.12929800882550513</v>
+      </c>
+      <c r="T23">
+        <v>108829.82469973322</v>
+      </c>
+      <c r="U23">
+        <v>821586.33233479771</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>153</v>
       </c>
       <c r="C24" s="38">
         <v>10</v>
       </c>
+      <c r="Q24" s="58">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="R24" s="17">
+        <v>7.2807713734459796</v>
+      </c>
+      <c r="S24" s="36">
+        <v>0.1518324065375134</v>
+      </c>
+      <c r="T24">
+        <v>136607.60247751101</v>
+      </c>
+      <c r="U24">
+        <v>851586.33233479771</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="Q25" s="58">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="R25" s="17">
+        <v>5.9949083022999012</v>
+      </c>
+      <c r="S25" s="36">
+        <v>0.18443762979171008</v>
+      </c>
+      <c r="T25">
+        <v>164385.38025528876</v>
+      </c>
+      <c r="U25">
+        <v>881586.33233479771</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="Q26" s="58">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+      <c r="R26" s="17">
+        <v>4.6262200947226848</v>
+      </c>
+      <c r="S26" s="36">
+        <v>0.23788474739711352</v>
+      </c>
+      <c r="T26">
+        <v>192163.1580330666</v>
+      </c>
+      <c r="U26">
+        <v>911586.33233479771</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="Q27" s="58">
+        <f t="shared" si="0"/>
+        <v>210000</v>
+      </c>
+      <c r="R27" s="17">
+        <v>3.1845045674678891</v>
+      </c>
+      <c r="S27" s="36">
+        <v>0.3475437729130062</v>
+      </c>
+      <c r="T27">
+        <v>219940.93581084436</v>
+      </c>
+      <c r="U27">
+        <v>941586.33233479771</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="Q30" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="R30" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="S30" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="T30" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="U30" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="V30" s="55"/>
+      <c r="W30" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="X30" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y30" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z30" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA30" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD30" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE30" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF30" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG30" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH30" s="17"/>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="Q31" s="53">
+        <v>0.05</v>
+      </c>
+      <c r="R31" s="7">
+        <f>L10</f>
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S31" s="36">
+        <f>L5</f>
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T31" s="40">
+        <f>L17</f>
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U31" s="50">
+        <f>L23</f>
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W31" s="53">
+        <v>0.03</v>
+      </c>
+      <c r="X31" s="7">
+        <f>L10</f>
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="Y31" s="36">
+        <f>L5</f>
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="Z31" s="40">
+        <f>L17</f>
+        <v>139385.38025528876</v>
+      </c>
+      <c r="AA31" s="50">
+        <f>L23</f>
+        <v>854586.33233479771</v>
+      </c>
+      <c r="AC31" s="53">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AD31" s="7">
+        <f>L10</f>
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="AE31" s="36">
+        <f>L5</f>
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="AF31" s="40">
+        <f>L17</f>
+        <v>139385.38025528876</v>
+      </c>
+      <c r="AG31" s="50">
+        <f>L23</f>
+        <v>854586.33233479771</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="Q32" s="53">
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <f t="dataTable" ref="R32:U43" dt2D="0" dtr="0" r1="C12" ca="1"/>
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S32" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T32">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U32">
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W32" s="53">
+        <v>0</v>
+      </c>
+      <c r="X32" s="7">
+        <f t="dataTable" ref="X32:AA43" dt2D="0" dtr="0" r1="C17" ca="1"/>
+        <v>7.9213884187936721</v>
+      </c>
+      <c r="Y32" s="36">
+        <v>0.12119888734434969</v>
+      </c>
+      <c r="Z32">
+        <v>57589.134265618901</v>
+      </c>
+      <c r="AA32">
+        <v>434870.34739464417</v>
+      </c>
+      <c r="AC32" s="54">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="7">
+        <f t="dataTable" ref="AD32:AG43" dt2D="0" dtr="0" r1="C19" ca="1"/>
+        <v>7.3554615428695787</v>
+      </c>
+      <c r="AE32" s="36">
+        <v>0.13613627624258839</v>
+      </c>
+      <c r="AF32">
+        <v>87568.449903391054</v>
+      </c>
+      <c r="AG32">
+        <v>585515.66577973496</v>
+      </c>
+    </row>
+    <row r="33" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q33" s="53">
+        <f>Q32+1%</f>
+        <v>0.01</v>
+      </c>
+      <c r="R33" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S33" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T33">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U33">
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W33" s="53">
+        <f>W32+0.5%</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X33" s="7">
+        <v>7.7773547370392979</v>
+      </c>
+      <c r="Y33" s="36">
+        <v>0.12679434170658799</v>
+      </c>
+      <c r="Z33">
+        <v>68526.884024149927</v>
+      </c>
+      <c r="AA33">
+        <v>488082.26650060638</v>
+      </c>
+      <c r="AC33" s="53">
+        <f>AC32+0.5%</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>7.3134422307191276</v>
+      </c>
+      <c r="AE33" s="36">
+        <v>0.14010412656690518</v>
+      </c>
+      <c r="AF33">
+        <v>98048.852140198564</v>
+      </c>
+      <c r="AG33">
+        <v>644261.39140601968</v>
+      </c>
+    </row>
+    <row r="34" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q34" s="53">
+        <f t="shared" ref="Q34:Q43" si="1">Q33+1%</f>
+        <v>0.02</v>
+      </c>
+      <c r="R34" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S34" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T34">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U34">
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W34" s="53">
+        <f t="shared" ref="W34:W43" si="2">W33+0.5%</f>
+        <v>0.01</v>
+      </c>
+      <c r="X34" s="7">
+        <v>7.6403322408248977</v>
+      </c>
+      <c r="Y34" s="36">
+        <v>0.13237089465586882</v>
+      </c>
+      <c r="Z34">
+        <v>80406.957653160367</v>
+      </c>
+      <c r="AA34">
+        <v>547035.01730020763</v>
+      </c>
+      <c r="AC34" s="53">
+        <f t="shared" ref="AC34:AC43" si="3">AC33+0.5%</f>
+        <v>0.01</v>
+      </c>
+      <c r="AD34" s="7">
+        <v>7.2725540834425981</v>
+      </c>
+      <c r="AE34" s="36">
+        <v>0.14425857372529505</v>
+      </c>
+      <c r="AF34">
+        <v>110116.06990421283</v>
+      </c>
+      <c r="AG34">
+        <v>713773.44784497772</v>
+      </c>
+    </row>
+    <row r="35" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q35" s="53">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="R35" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S35" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T35">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U35">
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W35" s="53">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="X35" s="7">
+        <v>7.5100173647744528</v>
+      </c>
+      <c r="Y35" s="36">
+        <v>0.13793114329920408</v>
+      </c>
+      <c r="Z35">
+        <v>93323.305667860142</v>
+      </c>
+      <c r="AA35">
+        <v>612385.31908232614</v>
+      </c>
+      <c r="AC35" s="53">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AD35" s="7">
+        <v>7.2327747161999092</v>
+      </c>
+      <c r="AE35" s="36">
+        <v>0.14807265529320413</v>
+      </c>
+      <c r="AF35">
+        <v>120962.48983026827</v>
+      </c>
+      <c r="AG35">
+        <v>767634.22003404447</v>
+      </c>
+    </row>
+    <row r="36" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q36" s="53">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="R36" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S36" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T36">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U36">
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W36" s="53">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="X36" s="7">
+        <v>7.3861180047036168</v>
+      </c>
+      <c r="Y36" s="36">
+        <v>0.14347732875122055</v>
+      </c>
+      <c r="Z36">
+        <v>107379.83216270067</v>
+      </c>
+      <c r="AA36">
+        <v>684866.14565551316</v>
+      </c>
+      <c r="AC36" s="53">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="AD36" s="7">
+        <v>7.194081817419999</v>
+      </c>
+      <c r="AE36" s="36">
+        <v>0.15145888971677435</v>
+      </c>
+      <c r="AF36">
+        <v>130504.30597156723</v>
+      </c>
+      <c r="AG36">
+        <v>812388.2178134222</v>
+      </c>
+    </row>
+    <row r="37" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q37" s="53">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="R37" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S37" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T37">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U37">
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W37" s="53">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X37" s="7">
+        <v>7.2683532623703888</v>
+      </c>
+      <c r="Y37" s="36">
+        <v>0.14901139006525321</v>
+      </c>
+      <c r="Z37">
+        <v>122691.47133585083</v>
+      </c>
+      <c r="AA37">
+        <v>765295.52448805643</v>
+      </c>
+      <c r="AC37" s="53">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AD37" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="AE37" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="AF37">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="AG37">
+        <v>854586.33233479771</v>
+      </c>
+    </row>
+    <row r="38" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q38" s="53">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="R38" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S38" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T38">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U38">
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W38" s="53">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="X38" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="Y38" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="Z38">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="AA38">
+        <v>854586.33233479806</v>
+      </c>
+      <c r="AC38" s="53">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>7.1194714166553625</v>
+      </c>
+      <c r="AE38" s="36">
+        <v>0.15738601100895533</v>
+      </c>
+      <c r="AF38">
+        <v>147978.9002131157</v>
+      </c>
+      <c r="AG38">
+        <v>896922.33981021738</v>
+      </c>
+    </row>
+    <row r="39" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q39" s="53">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R39" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S39" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T39">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U39">
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W39" s="53">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="X39" s="7">
+        <v>7.050158431090618</v>
+      </c>
+      <c r="Y39" s="36">
+        <v>0.16004964637114405</v>
+      </c>
+      <c r="Z39">
+        <v>157602.26022135309</v>
+      </c>
+      <c r="AA39">
+        <v>953757.19717977359</v>
+      </c>
+      <c r="AC39" s="53">
+        <f t="shared" si="3"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AD39" s="7">
+        <v>7.0819857502294692</v>
+      </c>
+      <c r="AE39" s="36">
+        <v>0.16008530273772648</v>
+      </c>
+      <c r="AF39">
+        <v>156571.94787213762</v>
+      </c>
+      <c r="AG39">
+        <v>941011.14448315708</v>
+      </c>
+    </row>
+    <row r="40" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q40" s="53">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="R40" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S40" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T40">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U40">
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W40" s="53">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="X40" s="7">
+        <v>6.9464383966103398</v>
+      </c>
+      <c r="Y40" s="36">
+        <v>0.16555657472406304</v>
+      </c>
+      <c r="Z40">
+        <v>177497.82036059588</v>
+      </c>
+      <c r="AA40">
+        <v>1063944.6280325653</v>
+      </c>
+      <c r="AC40" s="53">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>7.0449701748744484</v>
+      </c>
+      <c r="AE40" s="36">
+        <v>0.16266787056662024</v>
+      </c>
+      <c r="AF40">
+        <v>165323.45125338764</v>
+      </c>
+      <c r="AG40">
+        <v>987770.88114255853</v>
+      </c>
+    </row>
+    <row r="41" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q41" s="53">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="R41" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S41" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T41">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U41">
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W41" s="53">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="X41" s="7">
+        <v>6.8445869093882044</v>
+      </c>
+      <c r="Y41" s="36">
+        <v>0.1710569029389708</v>
+      </c>
+      <c r="Z41">
+        <v>199244.39849412235</v>
+      </c>
+      <c r="AA41">
+        <v>1186416.5070266831</v>
+      </c>
+      <c r="AC41" s="53">
+        <f t="shared" si="3"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>7.0082853714446571</v>
+      </c>
+      <c r="AE41" s="36">
+        <v>0.16516590680673571</v>
+      </c>
+      <c r="AF41">
+        <v>174368.81719811939</v>
+      </c>
+      <c r="AG41">
+        <v>1037943.8731509049</v>
+      </c>
+    </row>
+    <row r="42" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q42" s="53">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="R42" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S42" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T42">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U42">
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W42" s="53">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="X42" s="7">
+        <v>6.7469208936563536</v>
+      </c>
+      <c r="Y42" s="36">
+        <v>0.17655159916276175</v>
+      </c>
+      <c r="Z42">
+        <v>223032.75587266881</v>
+      </c>
+      <c r="AA42">
+        <v>1322587.092498499</v>
+      </c>
+      <c r="AC42" s="53">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="AD42" s="7">
+        <v>6.9699764351997153</v>
+      </c>
+      <c r="AE42" s="36">
+        <v>0.16761754757675829</v>
+      </c>
+      <c r="AF42">
+        <v>183860.60539633621</v>
+      </c>
+      <c r="AG42">
+        <v>1092290.3319776233</v>
+      </c>
+    </row>
+    <row r="43" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q43" s="53">
+        <f t="shared" si="1"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="R43" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S43" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T43">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U43">
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W43" s="53">
+        <f t="shared" si="2"/>
+        <v>5.4999999999999993E-2</v>
+      </c>
+      <c r="X43" s="7">
+        <v>6.6532823708696913</v>
+      </c>
+      <c r="Y43" s="36">
+        <v>0.18204150946563313</v>
+      </c>
+      <c r="Z43">
+        <v>249074.0640740018</v>
+      </c>
+      <c r="AA43">
+        <v>1474033.6974046072</v>
+      </c>
+      <c r="AC43" s="53">
+        <f t="shared" si="3"/>
+        <v>5.4999999999999993E-2</v>
+      </c>
+      <c r="AD43" s="7">
+        <v>6.9320687956268756</v>
+      </c>
+      <c r="AE43" s="36">
+        <v>0.17006465846998009</v>
+      </c>
+      <c r="AF43">
+        <v>193959.20986552513</v>
+      </c>
+      <c r="AG43">
+        <v>1151569.6216892337</v>
+      </c>
+    </row>
+    <row r="44" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="W44" s="18"/>
+    </row>
+    <row r="46" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q46" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="R46" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="S46" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="T46" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="U46" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="W46" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="X46" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y46" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z46" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA46" s="51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q47" s="58">
+        <v>1330</v>
+      </c>
+      <c r="R47" s="7">
+        <f>L10</f>
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S47" s="36">
+        <f>L5</f>
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T47" s="40">
+        <f>L17</f>
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U47" s="50">
+        <f>L23</f>
+        <v>854586.33233479771</v>
+      </c>
+      <c r="W47" s="59">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="X47" s="7">
+        <f>L10</f>
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="Y47" s="36">
+        <f>L5</f>
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="Z47" s="40">
+        <f>L17</f>
+        <v>139385.38025528876</v>
+      </c>
+      <c r="AA47" s="50">
+        <f>L23</f>
+        <v>854586.33233479771</v>
+      </c>
+    </row>
+    <row r="48" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="Q48" s="58">
+        <f>Q47-80</f>
+        <v>1250</v>
+      </c>
+      <c r="R48" s="7">
+        <f t="dataTable" ref="R48:U55" dt2D="0" dtr="0" r1="C21" ca="1"/>
+        <v>7.3997514711745582</v>
+      </c>
+      <c r="S48" s="36">
+        <v>0.14876807943342407</v>
+      </c>
+      <c r="T48">
+        <v>127201.2029494866</v>
+      </c>
+      <c r="U48">
+        <v>806184.31765321235</v>
+      </c>
+      <c r="W48" s="59">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X48" s="7">
+        <f t="dataTable" ref="X48:AA55" dt2D="0" dtr="0" r1="C23"/>
+        <v>7.0868618238952141</v>
+      </c>
+      <c r="Y48" s="36">
+        <v>0.15832499474138251</v>
+      </c>
+      <c r="Z48">
+        <v>152872.81701149436</v>
+      </c>
+      <c r="AA48">
+        <v>934168.82584441896</v>
+      </c>
+    </row>
+    <row r="49" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q49" s="58">
+        <f t="shared" ref="Q49:Q55" si="4">Q48-80</f>
+        <v>1170</v>
+      </c>
+      <c r="R49" s="7">
+        <v>7.6574715021578923</v>
+      </c>
+      <c r="S49" s="36">
+        <v>0.14257460586538562</v>
+      </c>
+      <c r="T49">
+        <v>114138.01712967157</v>
+      </c>
+      <c r="U49">
+        <v>754926.7425080305</v>
+      </c>
+      <c r="W49" s="60">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X49" s="7">
+        <v>7.1145537769168286</v>
+      </c>
+      <c r="Y49" s="36">
+        <v>0.156858410917049</v>
+      </c>
+      <c r="Z49">
+        <v>147521.4287357865</v>
+      </c>
+      <c r="AA49">
+        <v>902103.63524322351</v>
+      </c>
+    </row>
+    <row r="50" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q50" s="58">
+        <f t="shared" si="4"/>
+        <v>1090</v>
+      </c>
+      <c r="R50" s="7">
+        <v>7.9309347257996654</v>
+      </c>
+      <c r="S50" s="36">
+        <v>0.13577037383252355</v>
+      </c>
+      <c r="T50">
+        <v>100037.10915876899</v>
+      </c>
+      <c r="U50">
+        <v>700800.90821137745</v>
+      </c>
+      <c r="W50" s="60">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="X50" s="7">
+        <v>7.1424389720380503</v>
+      </c>
+      <c r="Y50" s="36">
+        <v>0.15532647256835941</v>
+      </c>
+      <c r="Z50">
+        <v>142108.95711376108</v>
+      </c>
+      <c r="AA50">
+        <v>870325.81451121939</v>
+      </c>
+    </row>
+    <row r="51" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q51" s="58">
+        <f t="shared" si="4"/>
+        <v>1010</v>
+      </c>
+      <c r="R51" s="7">
+        <v>8.2280326498072718</v>
+      </c>
+      <c r="S51" s="36">
+        <v>0.12808424585796896</v>
+      </c>
+      <c r="T51">
+        <v>84656.285110705212</v>
+      </c>
+      <c r="U51">
+        <v>643719.62275403377</v>
+      </c>
+      <c r="W51" s="60">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="X51" s="7">
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="Y51" s="36">
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="Z51">
+        <v>139385.38025528876</v>
+      </c>
+      <c r="AA51">
+        <v>854586.33233479771</v>
+      </c>
+    </row>
+    <row r="52" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q52" s="58">
+        <f t="shared" si="4"/>
+        <v>930</v>
+      </c>
+      <c r="R52" s="7">
+        <v>8.6864926323832314</v>
+      </c>
+      <c r="S52" s="36">
+        <v>0.11927590764949492</v>
+      </c>
+      <c r="T52">
+        <v>67858.990492133322</v>
+      </c>
+      <c r="U52">
+        <v>583927.75558635837</v>
+      </c>
+      <c r="W52" s="60">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="X52" s="7">
+        <v>7.1705146459417435</v>
+      </c>
+      <c r="Y52" s="36">
+        <v>0.15373154839416903</v>
+      </c>
+      <c r="Z52">
+        <v>136670.19922914164</v>
+      </c>
+      <c r="AA52">
+        <v>839034.19274328474</v>
+      </c>
+    </row>
+    <row r="53" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q53" s="58">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="R53" s="7">
+        <v>10.982263686331489</v>
+      </c>
+      <c r="S53" s="36">
+        <v>0.10887199159045569</v>
+      </c>
+      <c r="T53">
+        <v>49131.588831310364</v>
+      </c>
+      <c r="U53">
+        <v>521139.04960739659</v>
+      </c>
+      <c r="W53" s="60">
+        <v>0.01</v>
+      </c>
+      <c r="X53" s="7">
+        <v>7.1846230285460448</v>
+      </c>
+      <c r="Y53" s="36">
+        <v>0.15290897920949864</v>
+      </c>
+      <c r="Z53">
+        <v>133943.38166392921</v>
+      </c>
+      <c r="AA53">
+        <v>823591.38419934595</v>
+      </c>
+    </row>
+    <row r="54" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q54" s="58">
+        <f t="shared" si="4"/>
+        <v>770</v>
+      </c>
+      <c r="R54" s="7">
+        <v>11.955283134993039</v>
+      </c>
+      <c r="S54" s="36">
+        <v>9.789722320089167E-2</v>
+      </c>
+      <c r="T54">
+        <v>29991.015557276332</v>
+      </c>
+      <c r="U54">
+        <v>457791.10167477198</v>
+      </c>
+      <c r="W54" s="60">
+        <v>1.2E-2</v>
+      </c>
+      <c r="X54" s="7">
+        <v>7.2129790770113642</v>
+      </c>
+      <c r="Y54" s="36">
+        <v>0.15122284612472447</v>
+      </c>
+      <c r="Z54">
+        <v>128513.49869278551</v>
+      </c>
+      <c r="AA54">
+        <v>793271.18368834117</v>
+      </c>
+    </row>
+    <row r="55" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q55" s="58">
+        <f t="shared" si="4"/>
+        <v>690</v>
+      </c>
+      <c r="R55" s="7">
+        <v>13.106987715934817</v>
+      </c>
+      <c r="S55" s="36">
+        <v>8.6589200222573215E-2</v>
+      </c>
+      <c r="T55">
+        <v>10850.442283242257</v>
+      </c>
+      <c r="U55">
+        <v>394443.15374214761</v>
+      </c>
+      <c r="W55" s="60">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="X55" s="7">
+        <v>7.2558557974606446</v>
+      </c>
+      <c r="Y55" s="36">
+        <v>0.1485963736640481</v>
+      </c>
+      <c r="Z55">
+        <v>120458.07820976729</v>
+      </c>
+      <c r="AA55">
+        <v>749293.85695750662</v>
+      </c>
+    </row>
+    <row r="56" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q56" s="17"/>
+    </row>
+    <row r="57" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q57" s="17"/>
+    </row>
+    <row r="58" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q58" s="17"/>
+    </row>
+    <row r="59" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q59" s="17"/>
+    </row>
+    <row r="60" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q60" s="17"/>
+    </row>
+    <row r="63" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P63" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q63" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="R63" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="S63" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="T63" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="U63" s="61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q64" t="b">
+        <v>0</v>
+      </c>
+      <c r="R64" s="7">
+        <f>L10</f>
+        <v>7.1564531747640272</v>
+      </c>
+      <c r="S64" s="36">
+        <f>L5</f>
+        <v>0.15453500884255855</v>
+      </c>
+      <c r="T64" s="40">
+        <f>L17</f>
+        <v>139385.38025528876</v>
+      </c>
+      <c r="U64" s="50">
+        <f>L23</f>
+        <v>854586.33233479771</v>
+      </c>
+    </row>
+    <row r="65" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q67" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Q64:Q67" xr:uid="{EC788110-FF17-461F-900C-3BD0A64FD4DF}">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18633BEC-460F-4EDD-8FCA-4D71E3C25668}">
+  <dimension ref="A4:A18"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>